--- a/info/001.xlsx
+++ b/info/001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\licheng\Desktop\DSS_Final_Project\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEBB433-A6B8-472D-8682-8A34FAD4D7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28149754-D919-4CCD-9FBB-8B345BE4D4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -804,9 +804,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="A1:K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.69921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
